--- a/20180225-police_force/build/data/_raw/racial_breakdown_force.xlsx
+++ b/20180225-police_force/build/data/_raw/racial_breakdown_force.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="0" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6480" yWindow="0" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,8 +245,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,8 +270,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -284,6 +295,11 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -306,6 +322,11 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R32" sqref="A1:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1746,6 +1767,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1756,61 +1778,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M58" sqref="A58:M58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2008</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>2009</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>2010</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
         <v>2011</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>2012</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <v>2013</v>
       </c>
-      <c r="H2" s="1">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
         <v>2014</v>
       </c>
-      <c r="I2" s="1">
+      <c r="O2" s="1">
         <v>2015</v>
       </c>
-      <c r="J2" s="1">
+      <c r="P2" s="1">
         <v>2016</v>
       </c>
-      <c r="K2" s="1">
+      <c r="Q2" s="1">
         <v>2017</v>
       </c>
-      <c r="L2" s="1">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1">
         <v>2018</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1818,40 +1847,75 @@
         <v>29</v>
       </c>
       <c r="C3">
+        <f>B3/1637</f>
+        <v>1.77153329260843E-2</v>
+      </c>
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <f>D3/1439</f>
+        <v>2.0847810979847115E-2</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <f>F3/1246</f>
+        <v>1.6051364365971106E-2</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <f>H3/1227</f>
+        <v>1.8744906275468622E-2</v>
+      </c>
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <f>J3/1146</f>
+        <v>2.181500872600349E-2</v>
+      </c>
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="M3">
+        <f>L3/925</f>
+        <v>6.4864864864864862E-3</v>
+      </c>
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>13</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>11</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+      <c r="R3">
+        <f>Q3/913</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="U3">
+        <v>11689</v>
+      </c>
+      <c r="V3">
+        <f>T3/U3</f>
+        <v>1.5655744717255539E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1859,40 +1923,75 @@
         <v>1009</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C10" si="0">B4/1637</f>
+        <v>0.61637141111789862</v>
+      </c>
+      <c r="D4">
         <v>876</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="1">D4/1439</f>
+        <v>0.60875608061153574</v>
+      </c>
+      <c r="F4">
         <v>782</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="2">F4/1246</f>
+        <v>0.6276083467094703</v>
+      </c>
+      <c r="H4">
         <v>779</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">H4/1227</f>
+        <v>0.63488182559087203</v>
+      </c>
+      <c r="J4">
         <v>724</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="4">J4/1146</f>
+        <v>0.63176265270506105</v>
+      </c>
+      <c r="L4">
         <v>595</v>
       </c>
-      <c r="H4">
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="5">L4/925</f>
+        <v>0.64324324324324322</v>
+      </c>
+      <c r="N4">
         <v>662</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>575</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>657</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>556</v>
       </c>
-      <c r="L4">
+      <c r="R4">
+        <f t="shared" ref="R4:R10" si="6">Q4/913</f>
+        <v>0.60898138006571745</v>
+      </c>
+      <c r="S4">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="T4">
         <v>7270</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="U4">
+        <v>11689</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V10" si="7">T4/U4</f>
+        <v>0.62195226281118998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1900,40 +1999,75 @@
         <v>77</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.7037263286499695E-2</v>
+      </c>
+      <c r="D5">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5.2814454482279359E-2</v>
+      </c>
+      <c r="F5">
         <v>67</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>5.3772070626003213E-2</v>
+      </c>
+      <c r="H5">
         <v>66</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>5.3789731051344741E-2</v>
+      </c>
+      <c r="J5">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>6.1954624781849911E-2</v>
+      </c>
+      <c r="L5">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>3.783783783783784E-2</v>
+      </c>
+      <c r="N5">
         <v>54</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>49</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>58</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>4.3811610076670317E-2</v>
+      </c>
+      <c r="S5">
         <v>6</v>
       </c>
-      <c r="M5">
+      <c r="T5">
         <v>599</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="U5">
+        <v>11689</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>5.1244760030798184E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1941,40 +2075,75 @@
         <v>10</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.1087354917532073E-3</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.9492703266157054E-3</v>
+      </c>
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>9.7799511002444987E-3</v>
+      </c>
+      <c r="J6">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1.3961605584642234E-2</v>
+      </c>
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="H6">
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.1891891891891892E-2</v>
+      </c>
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>31</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>23</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.5191675794085433E-2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="U6">
+        <v>11689</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>1.3859183848062281E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1982,54 +2151,124 @@
         <v>91</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5.5589492974954184E-2</v>
+      </c>
+      <c r="D7">
         <v>65</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.5170257123002086E-2</v>
+      </c>
+      <c r="F7">
         <v>62</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4.9759229534510431E-2</v>
+      </c>
+      <c r="H7">
         <v>44</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>3.5859820700896494E-2</v>
+      </c>
+      <c r="J7">
         <v>41</v>
       </c>
-      <c r="G7">
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>3.5776614310645723E-2</v>
+      </c>
+      <c r="L7">
         <v>47</v>
       </c>
-      <c r="H7">
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>5.0810810810810812E-2</v>
+      </c>
+      <c r="N7">
         <v>59</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>52</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>53</v>
       </c>
-      <c r="L7">
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>5.8050383351588172E-2</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="T7">
         <v>560</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="U7">
+        <v>11689</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>4.7908289845153565E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6.1087354917532073E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8.0256821829855537E-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>11689</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>1.7110103516126274E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2037,40 +2276,75 @@
         <v>15</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9.1631032376298105E-3</v>
+      </c>
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.1118832522585128E-2</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4.815409309791332E-3</v>
+      </c>
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1.3854930725346373E-2</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>6.9808027923211171E-3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>3.2432432432432431E-3</v>
+      </c>
+      <c r="N9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>20</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>21</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>1.642935377875137E-2</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="U9">
+        <v>11689</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>1.1634870390965866E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2078,100 +2352,136 @@
         <v>405</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.24740378741600488</v>
+      </c>
+      <c r="D10">
         <v>366</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.2543432939541348</v>
+      </c>
+      <c r="F10">
         <v>294</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.23595505617977527</v>
+      </c>
+      <c r="H10">
         <v>286</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.23308883455582721</v>
+      </c>
+      <c r="J10">
         <v>261</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.22774869109947643</v>
+      </c>
+      <c r="L10">
         <v>228</v>
       </c>
-      <c r="H10">
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.24648648648648649</v>
+      </c>
+      <c r="N10">
         <v>253</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>234</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>215</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>215</v>
       </c>
-      <c r="L10">
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0.23548740416210295</v>
+      </c>
+      <c r="S10">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="T10">
         <v>2777</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="U10">
+        <v>11689</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>0.23757378732141329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>2008</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
         <v>2009</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>2010</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
         <v>2011</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
         <v>2012</v>
       </c>
-      <c r="G14" s="1">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <v>2013</v>
       </c>
-      <c r="H14" s="1">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
         <v>2014</v>
       </c>
-      <c r="I14" s="1">
+      <c r="O14" s="1">
         <v>2015</v>
       </c>
-      <c r="J14" s="1">
+      <c r="P14" s="1">
         <v>2016</v>
       </c>
-      <c r="K14" s="1">
+      <c r="Q14" s="1">
         <v>2017</v>
       </c>
-      <c r="L14" s="1">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
         <v>2018</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2179,1263 +2489,1333 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <v>130</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>111</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>55</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>70</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="L16">
         <v>31</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>35</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>26</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>30</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>20</v>
       </c>
-      <c r="L16">
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="M16">
+      <c r="T16">
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="M17">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="T17">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>7</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
+      <c r="J19">
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>63</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>46</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>22</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>27</v>
       </c>
-      <c r="F21">
+      <c r="J21">
         <v>27</v>
       </c>
-      <c r="G21">
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="N21">
         <v>9</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>13</v>
       </c>
-      <c r="J21">
+      <c r="P21">
         <v>7</v>
       </c>
-      <c r="K21">
+      <c r="Q21">
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="T21">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>2008</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <v>2009</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>2010</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
         <v>2011</v>
       </c>
-      <c r="F25" s="1">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
         <v>2012</v>
       </c>
-      <c r="G25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <v>2013</v>
       </c>
-      <c r="H25" s="1">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
         <v>2014</v>
       </c>
-      <c r="I25" s="1">
+      <c r="O25" s="1">
         <v>2015</v>
       </c>
-      <c r="J25" s="1">
+      <c r="P25" s="1">
         <v>2016</v>
       </c>
-      <c r="K25" s="1">
+      <c r="Q25" s="1">
         <v>2017</v>
       </c>
-      <c r="L25" s="1">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1">
         <v>2018</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>11</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>13</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>17</v>
       </c>
-      <c r="G27">
+      <c r="L27">
         <v>19</v>
       </c>
-      <c r="H27">
+      <c r="N27">
         <v>8</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="J27">
+      <c r="P27">
         <v>9</v>
       </c>
-      <c r="K27">
+      <c r="Q27">
         <v>9</v>
       </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
+      <c r="F28">
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="T28">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="D30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="G32">
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="N32">
         <v>6</v>
       </c>
-      <c r="J32">
+      <c r="P32">
         <v>6</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="M32">
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="T32">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:20">
       <c r="B36" s="1">
         <v>2010</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
         <v>2011</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
         <v>2012</v>
       </c>
-      <c r="E36" s="1">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
         <v>2013</v>
       </c>
-      <c r="F36" s="1">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
         <v>2014</v>
       </c>
-      <c r="G36" s="1">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1">
         <v>2015</v>
       </c>
-      <c r="H36" s="1">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1">
         <v>2016</v>
       </c>
-      <c r="I36" s="1">
+      <c r="O36" s="1">
         <v>2017</v>
       </c>
-      <c r="J36" s="1">
+      <c r="P36" s="1">
         <v>2018</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
         <v>6</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
         <v>14</v>
       </c>
-      <c r="E38" s="3">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
         <v>5</v>
       </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
         <v>4</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
         <v>4</v>
       </c>
-      <c r="J38" s="3">
+      <c r="P38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
         <v>5</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>2</v>
-      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3">
+        <v>2</v>
+      </c>
+      <c r="P42" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:20">
       <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>2008</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
         <v>2009</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
         <v>2010</v>
       </c>
-      <c r="E46" s="1">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
         <v>2011</v>
       </c>
-      <c r="F46" s="1">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
         <v>2012</v>
       </c>
-      <c r="G46" s="1">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
         <v>2013</v>
       </c>
-      <c r="H46" s="1">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1">
         <v>2014</v>
       </c>
-      <c r="I46" s="1">
+      <c r="O46" s="1">
         <v>2015</v>
       </c>
-      <c r="J46" s="1">
+      <c r="P46" s="1">
         <v>2016</v>
       </c>
-      <c r="K46" s="1">
+      <c r="Q46" s="1">
         <v>2017</v>
       </c>
-      <c r="L46" s="1">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1">
         <v>2018</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>9</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>8</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="J47">
         <v>6</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
         <v>7</v>
       </c>
-      <c r="K47">
+      <c r="Q47">
         <v>7</v>
       </c>
-      <c r="M47">
+      <c r="T47">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48">
         <v>112</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>135</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>137</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>168</v>
       </c>
-      <c r="F48">
+      <c r="J48">
         <v>107</v>
       </c>
-      <c r="G48">
+      <c r="L48">
         <v>106</v>
       </c>
-      <c r="H48">
+      <c r="N48">
         <v>158</v>
       </c>
-      <c r="I48">
+      <c r="O48">
         <v>121</v>
       </c>
-      <c r="J48">
+      <c r="P48">
         <v>202</v>
       </c>
-      <c r="K48">
+      <c r="Q48">
         <v>143</v>
       </c>
-      <c r="L48">
+      <c r="S48">
         <v>8</v>
       </c>
-      <c r="M48">
+      <c r="T48">
         <v>1397</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>13</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="J49">
         <v>11</v>
       </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="N49">
         <v>6</v>
       </c>
-      <c r="I49">
+      <c r="O49">
         <v>5</v>
       </c>
-      <c r="J49">
-        <v>3</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
       <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>10</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="J50">
         <v>7</v>
       </c>
-      <c r="G50">
+      <c r="L50">
         <v>5</v>
       </c>
-      <c r="H50">
+      <c r="N50">
         <v>6</v>
       </c>
-      <c r="I50">
+      <c r="O50">
         <v>9</v>
       </c>
-      <c r="J50">
+      <c r="P50">
         <v>25</v>
       </c>
-      <c r="K50">
+      <c r="Q50">
         <v>12</v>
       </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51">
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>13</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>13</v>
       </c>
-      <c r="F51">
+      <c r="J51">
         <v>8</v>
       </c>
-      <c r="G51">
+      <c r="L51">
         <v>9</v>
       </c>
-      <c r="H51">
+      <c r="N51">
         <v>9</v>
       </c>
-      <c r="I51">
+      <c r="O51">
         <v>11</v>
       </c>
-      <c r="J51">
+      <c r="P51">
         <v>18</v>
       </c>
-      <c r="K51">
+      <c r="Q51">
         <v>18</v>
       </c>
-      <c r="M51">
+      <c r="T51">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>15</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>14</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="H53">
         <v>11</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>6</v>
       </c>
-      <c r="I53">
+      <c r="O53">
         <v>11</v>
       </c>
-      <c r="J53">
+      <c r="P53">
         <v>15</v>
       </c>
-      <c r="K53">
+      <c r="Q53">
         <v>7</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54">
         <v>43</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>57</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>55</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>32</v>
       </c>
-      <c r="F54">
+      <c r="J54">
         <v>31</v>
       </c>
-      <c r="G54">
+      <c r="L54">
         <v>18</v>
       </c>
-      <c r="H54">
+      <c r="N54">
         <v>30</v>
       </c>
-      <c r="I54">
+      <c r="O54">
         <v>34</v>
       </c>
-      <c r="J54">
+      <c r="P54">
         <v>39</v>
       </c>
-      <c r="K54">
+      <c r="Q54">
         <v>31</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>2008</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
         <v>2009</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
         <v>2010</v>
       </c>
-      <c r="E58" s="1">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1">
         <v>2011</v>
       </c>
-      <c r="F58" s="1">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1">
         <v>2012</v>
       </c>
-      <c r="G58" s="1">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1">
         <v>2013</v>
       </c>
-      <c r="H58" s="1">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1">
         <v>2014</v>
       </c>
-      <c r="I58" s="1">
+      <c r="O58" s="1">
         <v>2015</v>
       </c>
-      <c r="J58" s="1">
+      <c r="P58" s="1">
         <v>2016</v>
       </c>
-      <c r="K58" s="1">
+      <c r="Q58" s="1">
         <v>2017</v>
       </c>
-      <c r="L58" s="1">
+      <c r="R58" s="1"/>
+      <c r="S58" s="1">
         <v>2018</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="T58" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>17</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>11</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>13</v>
       </c>
-      <c r="F59">
+      <c r="J59">
         <v>18</v>
       </c>
-      <c r="G59">
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="H59">
+      <c r="N59">
         <v>12</v>
       </c>
-      <c r="I59">
+      <c r="O59">
         <v>9</v>
       </c>
-      <c r="J59">
+      <c r="P59">
         <v>6</v>
       </c>
-      <c r="K59">
+      <c r="Q59">
         <v>4</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60">
         <v>717</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>614</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>566</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>508</v>
       </c>
-      <c r="F60">
+      <c r="J60">
         <v>524</v>
       </c>
-      <c r="G60">
+      <c r="L60">
         <v>425</v>
       </c>
-      <c r="H60">
+      <c r="N60">
         <v>452</v>
       </c>
-      <c r="I60">
+      <c r="O60">
         <v>411</v>
       </c>
-      <c r="J60">
+      <c r="P60">
         <v>405</v>
       </c>
-      <c r="K60">
+      <c r="Q60">
         <v>379</v>
       </c>
-      <c r="L60">
+      <c r="S60">
         <v>39</v>
       </c>
-      <c r="M60">
+      <c r="T60">
         <v>5040</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61">
         <v>50</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>51</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>45</v>
-      </c>
-      <c r="E61">
-        <v>44</v>
-      </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61">
-        <v>27</v>
       </c>
       <c r="H61">
         <v>44</v>
       </c>
-      <c r="I61">
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="L61">
+        <v>27</v>
+      </c>
+      <c r="N61">
+        <v>44</v>
+      </c>
+      <c r="O61">
         <v>41</v>
       </c>
-      <c r="J61">
+      <c r="P61">
         <v>49</v>
       </c>
-      <c r="K61">
+      <c r="Q61">
         <v>34</v>
       </c>
-      <c r="L61">
+      <c r="S61">
         <v>5</v>
       </c>
-      <c r="M61">
+      <c r="T61">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>6</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="J62">
         <v>5</v>
       </c>
-      <c r="G62">
+      <c r="L62">
         <v>4</v>
       </c>
-      <c r="H62">
+      <c r="N62">
         <v>10</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62">
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
         <v>6</v>
       </c>
-      <c r="K62">
+      <c r="Q62">
         <v>10</v>
       </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>48</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>41</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>26</v>
       </c>
-      <c r="F63">
+      <c r="J63">
         <v>29</v>
       </c>
-      <c r="G63">
+      <c r="L63">
         <v>33</v>
       </c>
-      <c r="H63">
+      <c r="N63">
         <v>42</v>
       </c>
-      <c r="I63">
+      <c r="O63">
         <v>26</v>
       </c>
-      <c r="J63">
+      <c r="P63">
         <v>33</v>
       </c>
-      <c r="K63">
+      <c r="Q63">
         <v>34</v>
       </c>
-      <c r="L63">
+      <c r="S63">
         <v>5</v>
       </c>
-      <c r="M63">
+      <c r="T63">
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>15</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65">
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="H65">
         <v>5</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65">
-        <v>7</v>
-      </c>
-      <c r="I65">
-        <v>9</v>
       </c>
       <c r="J65">
         <v>6</v>
       </c>
-      <c r="K65">
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65">
+        <v>9</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
         <v>8</v>
       </c>
-      <c r="M65">
+      <c r="T65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66">
         <v>287</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>253</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>205</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>215</v>
       </c>
-      <c r="F66">
+      <c r="J66">
         <v>196</v>
       </c>
-      <c r="G66">
+      <c r="L66">
         <v>185</v>
       </c>
-      <c r="H66">
+      <c r="N66">
         <v>199</v>
       </c>
-      <c r="I66">
+      <c r="O66">
         <v>185</v>
       </c>
-      <c r="J66">
+      <c r="P66">
         <v>161</v>
       </c>
-      <c r="K66">
+      <c r="Q66">
         <v>168</v>
       </c>
-      <c r="L66">
+      <c r="S66">
         <v>18</v>
       </c>
-      <c r="M66">
+      <c r="T66">
         <v>2072</v>
       </c>
     </row>
@@ -3454,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C79" activeCellId="1" sqref="A74 C79"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5601,6 +5981,7 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="C79" s="7"/>
       <c r="H79">
         <v>1</v>
       </c>
